--- a/docs/ics-attack-v9.0/ics-attack-v9.0-software.xlsx
+++ b/docs/ics-attack-v9.0/ics-attack-v9.0-software.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="634">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +91,9 @@
     <t>S1006</t>
   </si>
   <si>
+    <t>S0496</t>
+  </si>
+  <si>
     <t>S0446</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>PLC-Blaster</t>
   </si>
   <si>
+    <t>REvil</t>
+  </si>
+  <si>
     <t>Ryuk</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>[PLC-Blaster](https://collaborate.mitre.org/attackics/index.php/Software/S0009) is a piece of proof-of-concept malware that runs on Siemens S7 PLCs. This worm locates other Siemens S7 PLCs on the network and attempts to infect them. Once this worm has infected its target and attempted to infect other devices on the network, the worm can then run one of many modules.(Citation: BlackHat PLC-Blaster Mar 2016)(Citation: BlackHat PLC-Blaster 2016)</t>
   </si>
   <si>
+    <t>[REvil](https://attack.mitre.org/software/S0496) is a ransomware family that has been linked to the [GOLD SOUTHFIELD](https://attack.mitre.org/groups/G0115) group and operated as ransomware-as-a-service (RaaS) since at least April 2019. [REvil](https://attack.mitre.org/software/S0496) is highly configurable and shares code similarities with the GandCrab RaaS.(Citation: Secureworks REvil September 2019)(Citation: Intel 471 REvil March 2020)(Citation: Group IB Ransomware May 2020)</t>
+  </si>
+  <si>
     <t>[Ryuk](https://attack.mitre.org/software/S0446) is a ransomware designed to target enterprise environments that has been used in attacks since at least 2018. [Ryuk](https://attack.mitre.org/software/S0446) shares code similarities with Hermes ransomware.(Citation: CrowdStrike Ryuk January 2019)(Citation: FireEye Ryuk and Trickbot January 2019)(Citation: FireEye FIN6 Apr 2019)</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>https://collaborate.mitre.org/attackics/index.php/Software/S0009</t>
   </si>
   <si>
+    <t>https://attack.mitre.org/software/S0496</t>
+  </si>
+  <si>
     <t>https://attack.mitre.org/software/S0446</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t>26 March 2019</t>
   </si>
   <si>
+    <t>04 August 2020</t>
+  </si>
+  <si>
     <t>13 May 2020</t>
   </si>
   <si>
@@ -310,6 +325,9 @@
     <t>23 April 2021</t>
   </si>
   <si>
+    <t>06 April 2021</t>
+  </si>
+  <si>
     <t>14 April 2021</t>
   </si>
   <si>
@@ -361,6 +379,9 @@
     <t>Diskcoder.C, ExPetr, GoldenEye, Nyetya, Petrwrap</t>
   </si>
   <si>
+    <t>Sodin, Sodinokibi</t>
+  </si>
+  <si>
     <t>HatMan, TRISIS</t>
   </si>
   <si>
@@ -370,6 +391,9 @@
     <t>malware</t>
   </si>
   <si>
+    <t>Edward Millington</t>
+  </si>
+  <si>
     <t>Matt Brenton, Zurich Insurance Group; The DFIR Report, @TheDFIRReport</t>
   </si>
   <si>
@@ -577,6 +601,12 @@
     <t>Program Download</t>
   </si>
   <si>
+    <t>Remote Services</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
     <t>Commonly Used Port</t>
   </si>
   <si>
@@ -622,9 +652,6 @@
     <t>Exploitation for Privilege Escalation</t>
   </si>
   <si>
-    <t>Scripting</t>
-  </si>
-  <si>
     <t>System Firmware</t>
   </si>
   <si>
@@ -850,6 +877,30 @@
     <t>[PLC-Blaster](https://collaborate.mitre.org/attackics/index.php/Software/S0009) scans the network to find other Siemens S7 PLC devices to infect. It locates these devices by checking for a service listening on TCP port 102.(Citation: BlackHat Mar 2016)</t>
   </si>
   <si>
+    <t>The [REvil](https://collaborate.mitre.org/attackics/index.php/Software/S0019) malware gained access to an organization’s network and encrypted sensitive files used by OT equipment.(Citation: Dragos Ransomware in ICS Environments Dec 2020)</t>
+  </si>
+  <si>
+    <t>[REvil](https://collaborate.mitre.org/attackics/index.php/Software/S0019) searches for whether the Ahnlab 'autoup.exe' service is running on the target system and injects its payload into this existing process.(Citation: Cybereason Sodinokibi August 2019)</t>
+  </si>
+  <si>
+    <t>[REvil](https://collaborate.mitre.org/attackics/index.php/Software/S0019) uses the SMB protocol to encrypt files located on remotely connected file shares.(Citation: Darktrace Sodinokibi Feb 2020)</t>
+  </si>
+  <si>
+    <t>[REvil](https://collaborate.mitre.org/attackics/index.php/Software/S0019) utilizes JavaScript, WScript, and PowerShell scripts to execute. The malicious JavaScript attachment has an obfuscated PowerShell script that executes the malware.(Citation: Cybereason Sodinokibi August 2019)</t>
+  </si>
+  <si>
+    <t>[REvil](https://collaborate.mitre.org/attackics/index.php/Software/S0019) searches for all processes listed in the “prc” field within its configuration file and then terminates each process.(Citation: McAfee Sodinokibi October 2019)</t>
+  </si>
+  <si>
+    <t>[REvil](https://collaborate.mitre.org/attackics/index.php/Software/S0019) sends HTTPS POST messages with randomly generated URLs to communicate with a remote server.(Citation: Cybereason Sodinokibi August 2019)(Citation: SecureWorks REvil/Sodinokibi 2019)</t>
+  </si>
+  <si>
+    <t>[REvil](https://collaborate.mitre.org/attackics/index.php/Software/S0019) sends exfiltrated data from the victim’s system using HTTPS POST messages sent to the C2 system.(Citation: McAfee Sodinokibi October 2019)</t>
+  </si>
+  <si>
+    <t>[REvil](https://collaborate.mitre.org/attackics/index.php/Software/S0019) initially executes when the user clicks on a JavaScript file included in the phishing email’s .zip attachment.(Citation: Cybereason Sodinokibi August 2019)</t>
+  </si>
+  <si>
     <t>An enterprise resource planning (ERP) manufacturing server was lost to the [Ryuk](https://collaborate.mitre.org/attackics/index.php/Software/S0011) attack. The manufacturing process had to rely on paper and existing orders to keep the shop floor open.(Citation: DarkReading)</t>
   </si>
   <si>
@@ -1015,12 +1066,18 @@
     <t>CWE-119 Jan 2019</t>
   </si>
   <si>
+    <t>Cybereason Sodinokibi August 2019</t>
+  </si>
+  <si>
     <t>DHS CISA MAR-17-351-01 HatMan Feb 2019</t>
   </si>
   <si>
     <t>DarkReading</t>
   </si>
   <si>
+    <t>Darktrace Sodinokibi Feb 2020</t>
+  </si>
+  <si>
     <t>DoublePulsar LockerGoga</t>
   </si>
   <si>
@@ -1042,6 +1099,9 @@
     <t>Dragos Industroyer Jun 2017</t>
   </si>
   <si>
+    <t>Dragos Ransomware in ICS Environments Dec 2020</t>
+  </si>
+  <si>
     <t>ESET Bad Rabbit Oct 2017</t>
   </si>
   <si>
@@ -1099,6 +1159,9 @@
     <t>MITRE CVE-2018-8872 May 2018</t>
   </si>
   <si>
+    <t>McAfee Sodinokibi October 2019</t>
+  </si>
+  <si>
     <t>Midnight Blue Labs TRITON Jan 2018</t>
   </si>
   <si>
@@ -1111,6 +1174,9 @@
     <t>Schneider Electric TRITON Jan 2018</t>
   </si>
   <si>
+    <t>SecureWorks REvil/Sodinokibi 2019</t>
+  </si>
+  <si>
     <t>SemanticScholar Dec 2015</t>
   </si>
   <si>
@@ -1210,6 +1276,39 @@
     <t>BlackHat PLC-Blaster 2016</t>
   </si>
   <si>
+    <t>Secureworks REvil September 2019</t>
+  </si>
+  <si>
+    <t>Intel 471 REvil March 2020</t>
+  </si>
+  <si>
+    <t>Group IB Ransomware May 2020</t>
+  </si>
+  <si>
+    <t>Kaspersky Sodin July 2019</t>
+  </si>
+  <si>
+    <t>G Data Sodinokibi June 2019</t>
+  </si>
+  <si>
+    <t>Cylance Sodinokibi July 2019</t>
+  </si>
+  <si>
+    <t>Secureworks GandCrab and REvil September 2019</t>
+  </si>
+  <si>
+    <t>Talos Sodinokibi April 2019</t>
+  </si>
+  <si>
+    <t>McAfee REvil October 2019</t>
+  </si>
+  <si>
+    <t>Picus Sodinokibi January 2020</t>
+  </si>
+  <si>
+    <t>Tetra Defense Sodinokibi March 2020</t>
+  </si>
+  <si>
     <t>CrowdStrike Ryuk January 2019</t>
   </si>
   <si>
@@ -1297,9 +1396,15 @@
     <t>Common Weakness Enumeration. (2019, January 03). CWE-119: Improper Restriction of Operations within the Bounds of a Memory Buffer. Retrieved March 8, 2019.</t>
   </si>
   <si>
+    <t>Tom Fakterman. (2019, August 05). Sodinokibi: The Crown Prince of Ransomware. Retrieved April 12, 2021.</t>
+  </si>
+  <si>
     <t>Kelly Jackson Higgins. (n.d.). How a Manufacturing Firm Recovered from a Devastating Ransomware Attack. Retrieved November 3, 2019.</t>
   </si>
   <si>
+    <t>Max Heinemeyer. (2020, February 21). Post-mortem of a targeted Sodinokibi ransomware attack. Retrieved April 12, 2021.</t>
+  </si>
+  <si>
     <t>Kevin Beaumont. (n.d.). How Lockergoga took down Hydro — ransomware used in targeted attacks aimed at big business. Retrieved October 16, 2019.</t>
   </si>
   <si>
@@ -1318,6 +1423,9 @@
     <t>Dragos Inc.. (2017, June 13). Industroyer - Dragos - 201706: Analysis of the Threat to Electic Grid Operations. Retrieved September 18, 2017.</t>
   </si>
   <si>
+    <t>Selena Larson, Camille Singleton. (2020, December). RANSOMWARE IN ICS ENVIRONMENTS. Retrieved April 12, 2021.</t>
+  </si>
+  <si>
     <t>Marc-Etienne M.Léveillé. (2017, October 24). Bad Rabbit: Not‑Petya is back with improved ransomware. Retrieved October 27, 2019.</t>
   </si>
   <si>
@@ -1369,6 +1477,9 @@
     <t>MITRE. (2018, May 04). CVE-2018-8872. Retrieved March 8, 2019.</t>
   </si>
   <si>
+    <t>McAfee Labs. (2019, October 02). McAfee ATR Analyzes Sodinokibi aka REvil Ransomware-as-a-Service – What The Code Tells Us. Retrieved April 12, 2021.</t>
+  </si>
+  <si>
     <t>Jos Wetzels. (2018, January 16). Analyzing the TRITON industrial malware. Retrieved October 22, 2019.</t>
   </si>
   <si>
@@ -1378,6 +1489,9 @@
     <t>Schneider Electric. (2018, January 23). TRITON - Schneider Electric Analysis and Disclosure. Retrieved March 14, 2019.</t>
   </si>
   <si>
+    <t>SecureWorks. (2019, September 24). REvil/Sodinokibi Ransomware. Retrieved April 12, 2021.</t>
+  </si>
+  <si>
     <t>Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell. (2015, December 08). A Quantitative Evaluation of the Target Selection of Havex ICS Malware Plugin. Retrieved April 1, 2019.</t>
   </si>
   <si>
@@ -1453,6 +1567,42 @@
     <t>Scott W. Brady. (2020, October 15). United States vs. Yuriy Sergeyevich Andrienko et al.. Retrieved November 25, 2020.</t>
   </si>
   <si>
+    <t>Counter Threat Unit Research Team. (2019, September 24). REvil/Sodinokibi Ransomware. Retrieved August 4, 2020.</t>
+  </si>
+  <si>
+    <t>Intel 471 Malware Intelligence team. (2020, March 31). REvil Ransomware-as-a-Service – An analysis of a ransomware affiliate operation. Retrieved August 4, 2020.</t>
+  </si>
+  <si>
+    <t>Group IB. (2020, May). Ransomware Uncovered: Attackers’ Latest Methods. Retrieved August 5, 2020.</t>
+  </si>
+  <si>
+    <t>Mamedov, O, et al. (2019, July 3). Sodin ransomware exploits Windows vulnerability and processor architecture. Retrieved August 4, 2020.</t>
+  </si>
+  <si>
+    <t>Han, Karsten. (2019, June 4). Strange Bits: Sodinokibi Spam, CinaRAT, and Fake G DATA. Retrieved August 4, 2020.</t>
+  </si>
+  <si>
+    <t>Cylance. (2019, July 3). hreat Spotlight: Sodinokibi Ransomware. Retrieved August 4, 2020.</t>
+  </si>
+  <si>
+    <t>Secureworks . (2019, September 24). REvil: The GandCrab Connection. Retrieved August 4, 2020.</t>
+  </si>
+  <si>
+    <t>Cadieux, P, et al (2019, April 30). Sodinokibi ransomware exploits WebLogic Server vulnerability. Retrieved August 4, 2020.</t>
+  </si>
+  <si>
+    <t>McAfee. (2019, October 2). McAfee ATR Analyzes Sodinokibi aka REvil Ransomware-as-a-Service – What The Code Tells Us. Retrieved August 4, 2020.</t>
+  </si>
+  <si>
+    <t>Saavedra-Morales, J, et al. (2019, October 20). McAfee ATR Analyzes Sodinokibi aka REvil Ransomware-as-a-Service – Crescendo. Retrieved August 5, 2020.</t>
+  </si>
+  <si>
+    <t>Ozarslan, S. (2020, January 15). A Brief History of Sodinokibi. Retrieved August 5, 2020.</t>
+  </si>
+  <si>
+    <t>Tetra Defense. (2020, March). CAUSE AND EFFECT: SODINOKIBI RANSOMWARE ANALYSIS. Retrieved December 14, 2020.</t>
+  </si>
+  <si>
     <t>Hanel, A. (2019, January 10). Big Game Hunting with Ryuk: Another Lucrative Targeted Ransomware. Retrieved May 12, 2020.</t>
   </si>
   <si>
@@ -1516,9 +1666,15 @@
     <t>https://cwe.mitre.org/data/definitions/119.html</t>
   </si>
   <si>
+    <t>https://www.cybereason.com/blog/the-sodinokibi-ransomware-attack</t>
+  </si>
+  <si>
     <t>https://www.darkreading.com/attacks-breaches/how-a-manufacturing-firm-recovered-from-a-devastating-ransomware-attack/d/d-id/1334760</t>
   </si>
   <si>
+    <t>https://www.darktrace.com/en/blog/post-mortem-of-a-targeted-sodinokibi-ransomware-attack/</t>
+  </si>
+  <si>
     <t>https://doublepulsar.com/how-lockergoga-took-down-hydro-ransomware-used-in-targeted-attacks-aimed-at-big-business-c666551f5880</t>
   </si>
   <si>
@@ -1537,6 +1693,9 @@
     <t>https://dragos.com/blog/crashoverride/CrashOverride-01.pdf</t>
   </si>
   <si>
+    <t>https://f.hubspotusercontent10.net/hubfs/5943619/Whitepaper-Downloads/Ransomware_in_ICS_Environments_Whitepaper_10_12_20.pdf?utm_referrer=https%3A%2F%2Fwww.dragos.com%2Fresource%2Fransomware-in-ics-environments%2F</t>
+  </si>
+  <si>
     <t>https://www.welivesecurity.com/2016/01/03/blackenergy-sshbeardoor-details-2015-attacks-ukrainian-news-media-electric-industry/</t>
   </si>
   <si>
@@ -1585,6 +1744,9 @@
     <t>https://nvd.nist.gov/vuln/detail/CVE-2018-8872</t>
   </si>
   <si>
+    <t>https://www.mcafee.com/blogs/other-blogs/mcafee-labs/mcafee-atr-analyzes-sodinokibi-aka-revil-ransomware-as-a-service-what-the-code-tells-us</t>
+  </si>
+  <si>
     <t>https://www.midnightbluelabs.com/blog/2018/1/16/analyzing-the-triton-industrial-malware</t>
   </si>
   <si>
@@ -1594,6 +1756,9 @@
     <t>https://www.youtube.com/watch?v=f09E75bWvkk&amp;index=3&amp;list=PL8OWO1qWXF4qYG19p7An4Vw3N2YZ86aRS&amp;t=0s</t>
   </si>
   <si>
+    <t>https://www.secureworks.com/research/revil-sodinokibi-ransomware</t>
+  </si>
+  <si>
     <t>https://pdfs.semanticscholar.org/18df/43ef1690b0fae15a36f770001160aefbc6c5.pdf</t>
   </si>
   <si>
@@ -1670,6 +1835,39 @@
   </si>
   <si>
     <t>https://www.blackhat.com/docs/asia-16/materials/asia-16-Spenneberg-PLC-Blaster-A-Worm-Living-Solely-In-The-PLC.pdf</t>
+  </si>
+  <si>
+    <t>https://intel471.com/blog/revil-ransomware-as-a-service-an-analysis-of-a-ransomware-affiliate-operation/</t>
+  </si>
+  <si>
+    <t>https://www.group-ib.com/whitepapers/ransomware-uncovered.html</t>
+  </si>
+  <si>
+    <t>https://securelist.com/sodin-ransomware/91473/</t>
+  </si>
+  <si>
+    <t>https://www.gdatasoftware.com/blog/2019/06/31724-strange-bits-sodinokibi-spam-cinarat-and-fake-g-data</t>
+  </si>
+  <si>
+    <t>https://threatvector.cylance.com/en_us/home/threat-spotlight-sodinokibi-ransomware.html</t>
+  </si>
+  <si>
+    <t>https://www.secureworks.com/blog/revil-the-gandcrab-connection</t>
+  </si>
+  <si>
+    <t>https://blog.talosintelligence.com/2019/04/sodinokibi-ransomware-exploits-weblogic.html</t>
+  </si>
+  <si>
+    <t>https://www.mcafee.com/blogs/other-blogs/mcafee-labs/mcafee-atr-analyzes-sodinokibi-aka-revil-ransomware-as-a-service-what-the-code-tells-us/</t>
+  </si>
+  <si>
+    <t>https://www.mcafee.com/blogs/other-blogs/mcafee-labs/mcafee-atr-analyzes-sodinokibi-aka-revil-ransomware-as-a-service-crescendo/</t>
+  </si>
+  <si>
+    <t>https://www.picussecurity.com/blog/a-brief-history-and-further-technical-analysis-of-sodinokibi-ransomware</t>
+  </si>
+  <si>
+    <t>https://www.tetradefense.com/incident-response-services/cause-and-effect-sodinokibi-ransomware-analysis</t>
   </si>
   <si>
     <t>https://www.crowdstrike.com/blog/big-game-hunting-with-ryuk-another-lucrative-targeted-ransomware/</t>
@@ -2091,7 +2289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2137,31 +2335,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2169,31 +2367,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2201,31 +2399,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2233,31 +2431,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2265,31 +2463,31 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2297,28 +2495,28 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2326,31 +2524,31 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2358,31 +2556,31 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2390,31 +2588,31 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2422,28 +2620,28 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2451,28 +2649,28 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2480,31 +2678,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2512,28 +2710,28 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2541,31 +2739,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2573,28 +2774,31 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2602,31 +2806,28 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2634,28 +2835,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2663,34 +2867,63 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2713,6 +2946,7 @@
     <hyperlink ref="D17" r:id="rId16"/>
     <hyperlink ref="D18" r:id="rId17"/>
     <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2728,48 +2962,48 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -2777,45 +3011,45 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -2823,62 +3057,62 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
@@ -2886,22 +3120,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +3145,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2919,88 +3153,88 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -3008,22 +3242,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -3031,22 +3265,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -3054,22 +3288,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -3077,22 +3311,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -3100,22 +3334,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -3123,22 +3357,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -3146,22 +3380,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -3169,22 +3403,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -3192,142 +3426,142 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -3335,22 +3569,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -3358,22 +3592,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -3381,82 +3615,82 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -3464,22 +3698,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
@@ -3487,102 +3721,102 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -3590,22 +3824,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -3613,622 +3847,622 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F37" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F48" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F49" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F56" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E58" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F60" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F61" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G63" t="s">
         <v>21</v>
@@ -4236,22 +4470,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G64" t="s">
         <v>21</v>
@@ -4259,22 +4493,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G65" t="s">
         <v>21</v>
@@ -4282,22 +4516,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F66" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="G66" t="s">
         <v>22</v>
@@ -4305,22 +4539,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G67" t="s">
         <v>22</v>
@@ -4328,22 +4562,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G68" t="s">
         <v>22</v>
@@ -4351,22 +4585,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G69" t="s">
         <v>22</v>
@@ -4374,202 +4608,202 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F70" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F73" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F74" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F75" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F76" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F78" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F79" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G79" t="s">
         <v>24</v>
@@ -4580,968 +4814,1152 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F80" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>287</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F81" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>288</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E82" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>289</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>290</v>
+      </c>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F84" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>291</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>292</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>293</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E88" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F88" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E89" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F89" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F90" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E91" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F91" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F92" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" t="s">
+        <v>212</v>
+      </c>
+      <c r="F93" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" t="s">
+        <v>212</v>
+      </c>
+      <c r="F95" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" t="s">
         <v>183</v>
       </c>
-      <c r="E93" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" t="s">
-        <v>193</v>
-      </c>
-      <c r="E94" t="s">
-        <v>203</v>
-      </c>
-      <c r="F94" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" t="s">
-        <v>132</v>
-      </c>
-      <c r="D95" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" t="s">
-        <v>203</v>
-      </c>
-      <c r="F95" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>43</v>
-      </c>
-      <c r="B96" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" t="s">
-        <v>132</v>
-      </c>
-      <c r="D96" t="s">
-        <v>194</v>
-      </c>
       <c r="E96" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F96" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E97" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F97" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E98" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F98" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E99" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F99" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="E100" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F100" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="E101" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F101" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F102" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F103" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F104" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F105" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F106" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D107" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F107" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D108" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D110" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E112" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E113" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E114" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D115" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="E115" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D116" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E116" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D117" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E117" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F117" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E118" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F118" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="E119" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F119" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E120" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F120" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D121" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E121" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F121" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D122" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E122" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F122" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D123" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E123" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F123" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D124" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E124" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F124" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>46</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D125" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E125" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F125" t="s">
-        <v>322</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>46</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E126" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F126" t="s">
-        <v>323</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>46</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C127" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D127" t="s">
         <v>151</v>
       </c>
       <c r="E127" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F127" t="s">
-        <v>324</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" t="s">
+        <v>195</v>
+      </c>
+      <c r="E128" t="s">
+        <v>212</v>
+      </c>
+      <c r="F128" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" t="s">
+        <v>195</v>
+      </c>
+      <c r="E129" t="s">
+        <v>212</v>
+      </c>
+      <c r="F129" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" t="s">
+        <v>211</v>
+      </c>
+      <c r="E130" t="s">
+        <v>212</v>
+      </c>
+      <c r="F130" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" t="s">
+        <v>185</v>
+      </c>
+      <c r="E131" t="s">
+        <v>212</v>
+      </c>
+      <c r="F131" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" t="s">
+        <v>204</v>
+      </c>
+      <c r="E132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F132" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>140</v>
+      </c>
+      <c r="D133" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" t="s">
+        <v>212</v>
+      </c>
+      <c r="F133" t="s">
+        <v>339</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" t="s">
+        <v>212</v>
+      </c>
+      <c r="F134" t="s">
+        <v>340</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135" t="s">
+        <v>212</v>
+      </c>
+      <c r="F135" t="s">
+        <v>341</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5551,7 +5969,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5559,10 +5977,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -5570,1146 +5988,1333 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>462</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>508</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B26" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B29" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B30" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B31" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B33" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="B34" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>522</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="B37" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>523</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B39" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>341</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>462</v>
+        <v>390</v>
+      </c>
+      <c r="B48" t="s">
+        <v>495</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>462</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>501</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>376</v>
-      </c>
-      <c r="B53" t="s">
-        <v>455</v>
+        <v>361</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>504</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>536</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B60" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>538</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B62" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s">
-        <v>430</v>
+        <v>507</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>543</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B68" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>502</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B69" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="B70" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>496</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B71" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>544</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="B72" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="B73" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B74" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="B75" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B76" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s">
-        <v>421</v>
+        <v>511</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B78" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B79" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B80" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B81" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>554</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B82" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B83" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B84" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>556</v>
+        <v>606</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B85" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>557</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B86" t="s">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>519</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="B87" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>512</v>
+        <v>609</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="B88" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="B90" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>524</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="B91" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>560</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>561</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="B93" t="s">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>522</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>562</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="B95" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>521</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>529</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>498</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="B97" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>523</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="B98" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>520</v>
+        <v>620</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="B99" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="B100" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>531</v>
+        <v>621</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B101" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B102" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>564</v>
+        <v>623</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B103" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="B105" t="s">
-        <v>493</v>
+        <v>535</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>567</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>440</v>
+      </c>
+      <c r="B106" t="s">
+        <v>457</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>384</v>
+      </c>
+      <c r="B107" t="s">
+        <v>489</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" t="s">
+        <v>536</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>442</v>
+      </c>
+      <c r="B109" t="s">
+        <v>537</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" t="s">
+        <v>487</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>444</v>
+      </c>
+      <c r="B111" t="s">
+        <v>538</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B112" t="s">
+        <v>485</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>446</v>
+      </c>
+      <c r="B113" t="s">
+        <v>458</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>447</v>
+      </c>
+      <c r="B114" t="s">
+        <v>488</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>448</v>
+      </c>
+      <c r="B115" t="s">
+        <v>484</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>391</v>
+      </c>
+      <c r="B116" t="s">
+        <v>496</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>392</v>
+      </c>
+      <c r="B117" t="s">
+        <v>497</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>449</v>
+      </c>
+      <c r="B118" t="s">
+        <v>539</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" t="s">
+        <v>540</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>451</v>
+      </c>
+      <c r="B120" t="s">
+        <v>541</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>452</v>
+      </c>
+      <c r="B121" t="s">
+        <v>542</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>453</v>
+      </c>
+      <c r="B122" t="s">
+        <v>543</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -6760,12 +7365,12 @@
     <hyperlink ref="C45" r:id="rId44"/>
     <hyperlink ref="C46" r:id="rId45"/>
     <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="C48" r:id="rId48"/>
-    <hyperlink ref="C49" r:id="rId49"/>
-    <hyperlink ref="C50" r:id="rId50"/>
-    <hyperlink ref="C51" r:id="rId51"/>
-    <hyperlink ref="C52" r:id="rId52"/>
+    <hyperlink ref="C48" r:id="rId47"/>
+    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
     <hyperlink ref="C53" r:id="rId53"/>
     <hyperlink ref="C54" r:id="rId54"/>
     <hyperlink ref="C55" r:id="rId55"/>
@@ -6773,12 +7378,12 @@
     <hyperlink ref="C57" r:id="rId57"/>
     <hyperlink ref="C58" r:id="rId58"/>
     <hyperlink ref="C59" r:id="rId59"/>
-    <hyperlink ref="C60" r:id="rId60" location="_edn7"/>
+    <hyperlink ref="C60" r:id="rId60"/>
     <hyperlink ref="C61" r:id="rId61"/>
     <hyperlink ref="C62" r:id="rId62"/>
     <hyperlink ref="C63" r:id="rId63"/>
     <hyperlink ref="C64" r:id="rId64"/>
-    <hyperlink ref="C65" r:id="rId65"/>
+    <hyperlink ref="C65" r:id="rId65" location="_edn7"/>
     <hyperlink ref="C66" r:id="rId66"/>
     <hyperlink ref="C67" r:id="rId67"/>
     <hyperlink ref="C68" r:id="rId68"/>
@@ -6819,6 +7424,23 @@
     <hyperlink ref="C103" r:id="rId103"/>
     <hyperlink ref="C104" r:id="rId104"/>
     <hyperlink ref="C105" r:id="rId105"/>
+    <hyperlink ref="C106" r:id="rId106"/>
+    <hyperlink ref="C107" r:id="rId107"/>
+    <hyperlink ref="C108" r:id="rId108"/>
+    <hyperlink ref="C109" r:id="rId109"/>
+    <hyperlink ref="C110" r:id="rId110"/>
+    <hyperlink ref="C111" r:id="rId111"/>
+    <hyperlink ref="C112" r:id="rId112"/>
+    <hyperlink ref="C113" r:id="rId113"/>
+    <hyperlink ref="C114" r:id="rId114"/>
+    <hyperlink ref="C115" r:id="rId115"/>
+    <hyperlink ref="C116" r:id="rId116"/>
+    <hyperlink ref="C117" r:id="rId117"/>
+    <hyperlink ref="C118" r:id="rId118"/>
+    <hyperlink ref="C119" r:id="rId119"/>
+    <hyperlink ref="C120" r:id="rId120"/>
+    <hyperlink ref="C121" r:id="rId121"/>
+    <hyperlink ref="C122" r:id="rId122"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
